--- a/wide/synthetic_dataset_4.xlsx
+++ b/wide/synthetic_dataset_4.xlsx
@@ -372,562 +372,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:32">
       <c r="A1" s="1">
-        <v>45877</v>
+        <v>45864</v>
       </c>
       <c r="B1" s="1">
-        <v>45884</v>
+        <v>45871</v>
       </c>
       <c r="C1" s="1">
-        <v>45891</v>
+        <v>45878</v>
       </c>
       <c r="D1" s="1">
-        <v>45898</v>
-      </c>
-      <c r="E1" s="1">
-        <v>45905</v>
-      </c>
-      <c r="F1" s="2"/>
+        <v>45885</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1">
+        <v>45899</v>
+      </c>
       <c r="G1" s="1">
-        <v>45919</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+        <v>45906</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45913</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45920</v>
+      </c>
       <c r="J1" s="1">
-        <v>45940</v>
+        <v>45927</v>
       </c>
       <c r="K1" s="1">
-        <v>45947</v>
+        <v>45934</v>
       </c>
       <c r="L1" s="1">
-        <v>45954</v>
+        <v>45941</v>
       </c>
       <c r="M1" s="1">
-        <v>45961</v>
+        <v>45948</v>
       </c>
       <c r="N1" s="1">
-        <v>45968</v>
-      </c>
-      <c r="O1" s="1">
-        <v>45975</v>
-      </c>
+        <v>45955</v>
+      </c>
+      <c r="O1" s="2"/>
       <c r="P1" s="1">
-        <v>45982</v>
+        <v>45969</v>
       </c>
       <c r="Q1" s="1">
-        <v>45989</v>
+        <v>45976</v>
       </c>
       <c r="R1" s="1">
-        <v>45996</v>
+        <v>45983</v>
       </c>
       <c r="S1" s="1">
-        <v>46003</v>
+        <v>45990</v>
       </c>
       <c r="T1" s="1">
-        <v>46010</v>
+        <v>45997</v>
       </c>
       <c r="U1" s="1">
-        <v>46017</v>
+        <v>46004</v>
       </c>
       <c r="V1" s="1">
-        <v>46024</v>
-      </c>
-      <c r="W1" s="2"/>
+        <v>46011</v>
+      </c>
+      <c r="W1" s="1">
+        <v>46018</v>
+      </c>
       <c r="X1" s="1">
-        <v>46038</v>
+        <v>46025</v>
       </c>
       <c r="Y1" s="1">
-        <v>46045</v>
+        <v>46032</v>
       </c>
       <c r="Z1" s="1">
-        <v>46052</v>
-      </c>
-      <c r="AA1" s="2"/>
+        <v>46039</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>46046</v>
+      </c>
       <c r="AB1" s="1">
-        <v>46066</v>
+        <v>46053</v>
       </c>
       <c r="AC1" s="1">
-        <v>46073</v>
+        <v>46060</v>
       </c>
       <c r="AD1" s="1">
-        <v>46080</v>
+        <v>46067</v>
       </c>
       <c r="AE1" s="1">
-        <v>46087</v>
+        <v>46074</v>
       </c>
       <c r="AF1" s="1">
-        <v>46094</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>46101</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>46108</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>46115</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>46122</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>46129</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>46136</v>
+        <v>46081</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:32">
       <c r="A2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F2">
+        <v>197</v>
+      </c>
+      <c r="G2">
+        <v>135</v>
+      </c>
+      <c r="H2">
+        <v>165</v>
+      </c>
+      <c r="I2">
+        <v>86</v>
+      </c>
+      <c r="J2">
+        <v>155</v>
+      </c>
+      <c r="K2">
+        <v>67</v>
+      </c>
+      <c r="L2">
+        <v>158</v>
+      </c>
+      <c r="M2">
+        <v>129</v>
+      </c>
+      <c r="N2">
+        <v>176</v>
+      </c>
+      <c r="O2">
+        <v>56</v>
+      </c>
+      <c r="P2">
+        <v>193</v>
+      </c>
+      <c r="Q2">
+        <v>84</v>
+      </c>
+      <c r="R2">
+        <v>188</v>
+      </c>
+      <c r="S2">
+        <v>60</v>
+      </c>
+      <c r="U2">
+        <v>159</v>
+      </c>
+      <c r="V2">
+        <v>53</v>
+      </c>
+      <c r="W2">
+        <v>123</v>
+      </c>
+      <c r="X2">
+        <v>66</v>
+      </c>
+      <c r="Y2">
+        <v>97</v>
+      </c>
+      <c r="Z2">
+        <v>103</v>
+      </c>
+      <c r="AA2">
+        <v>104</v>
+      </c>
+      <c r="AB2">
+        <v>151</v>
+      </c>
+      <c r="AC2">
         <v>90</v>
       </c>
-      <c r="G2">
-        <v>180</v>
-      </c>
-      <c r="H2">
-        <v>113</v>
-      </c>
-      <c r="J2">
-        <v>174</v>
-      </c>
-      <c r="K2">
-        <v>124</v>
-      </c>
-      <c r="L2">
-        <v>94</v>
-      </c>
-      <c r="M2">
-        <v>127</v>
-      </c>
-      <c r="N2">
-        <v>51</v>
-      </c>
-      <c r="O2">
-        <v>139</v>
-      </c>
-      <c r="P2">
-        <v>158</v>
-      </c>
-      <c r="Q2">
-        <v>53</v>
-      </c>
-      <c r="R2">
-        <v>90</v>
-      </c>
-      <c r="S2">
-        <v>112</v>
-      </c>
-      <c r="T2">
-        <v>133</v>
-      </c>
-      <c r="U2">
-        <v>127</v>
-      </c>
-      <c r="V2">
-        <v>77</v>
-      </c>
-      <c r="W2">
-        <v>68</v>
-      </c>
-      <c r="X2">
-        <v>62</v>
-      </c>
-      <c r="Y2">
-        <v>125</v>
-      </c>
-      <c r="Z2">
-        <v>91</v>
-      </c>
-      <c r="AA2">
-        <v>101</v>
-      </c>
-      <c r="AB2">
-        <v>88</v>
-      </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>120</v>
       </c>
-      <c r="AD2">
-        <v>160</v>
-      </c>
       <c r="AE2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AF2">
-        <v>98</v>
-      </c>
-      <c r="AG2">
-        <v>94</v>
-      </c>
-      <c r="AH2">
-        <v>91</v>
-      </c>
-      <c r="AI2">
-        <v>91</v>
-      </c>
-      <c r="AJ2">
-        <v>164</v>
-      </c>
-      <c r="AK2">
-        <v>167</v>
-      </c>
-      <c r="AL2">
-        <v>177</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:32">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
+      <c r="L3">
+        <v>8</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="S3">
-        <v>8</v>
-      </c>
       <c r="T3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V3">
         <v>2</v>
       </c>
       <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
         <v>2</v>
       </c>
       <c r="Z3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF3">
-        <v>2</v>
-      </c>
-      <c r="AG3">
-        <v>7</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>8</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:32">
       <c r="A4">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="F4">
-        <v>149</v>
-      </c>
-      <c r="G4">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>51</v>
       </c>
       <c r="I4">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="J4">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N4">
+        <v>55</v>
+      </c>
+      <c r="O4">
         <v>150</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>158</v>
       </c>
-      <c r="P4">
-        <v>102</v>
-      </c>
       <c r="Q4">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="R4">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="S4">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="T4">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="U4">
+        <v>123</v>
+      </c>
+      <c r="V4">
+        <v>99</v>
+      </c>
+      <c r="W4">
+        <v>154</v>
+      </c>
+      <c r="X4">
+        <v>115</v>
+      </c>
+      <c r="Y4">
         <v>94</v>
       </c>
-      <c r="V4">
-        <v>68</v>
-      </c>
-      <c r="W4">
-        <v>71</v>
-      </c>
-      <c r="X4">
-        <v>198</v>
-      </c>
-      <c r="Y4">
-        <v>67</v>
-      </c>
       <c r="Z4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="AB4">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AC4">
-        <v>88</v>
-      </c>
-      <c r="AD4">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="AE4">
-        <v>138</v>
-      </c>
-      <c r="AF4">
-        <v>161</v>
-      </c>
-      <c r="AH4">
-        <v>53</v>
-      </c>
-      <c r="AI4">
-        <v>74</v>
-      </c>
-      <c r="AJ4">
-        <v>190</v>
-      </c>
-      <c r="AK4">
-        <v>82</v>
-      </c>
-      <c r="AL4">
-        <v>91</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:32">
       <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>9</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>9</v>
-      </c>
-      <c r="S5">
-        <v>8</v>
-      </c>
-      <c r="T5">
-        <v>10</v>
-      </c>
-      <c r="U5">
-        <v>8</v>
-      </c>
-      <c r="V5">
-        <v>5</v>
-      </c>
       <c r="W5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>7</v>
       </c>
       <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
         <v>7</v>
       </c>
-      <c r="Z5">
-        <v>9</v>
-      </c>
       <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
         <v>7</v>
       </c>
-      <c r="AB5">
+      <c r="AF5">
         <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-      <c r="AD5">
-        <v>5</v>
-      </c>
-      <c r="AE5">
-        <v>10</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>6</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
-      <c r="AI5">
-        <v>4</v>
-      </c>
-      <c r="AJ5">
-        <v>6</v>
-      </c>
-      <c r="AK5">
-        <v>3</v>
-      </c>
-      <c r="AL5">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
